--- a/reports/_OCC_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-11-28_20_.xlsx
+++ b/reports/_OCC_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-11-28_20_.xlsx
@@ -138,7 +138,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -177,7 +177,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -191,7 +191,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>OCC</t>
         </is>
       </c>
     </row>
@@ -432,7 +432,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -447,7 +447,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -461,7 +461,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>OCC</t>
         </is>
       </c>
     </row>
@@ -590,7 +590,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -605,7 +605,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>OCC</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -775,7 +775,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>OCC</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -1050,7 +1050,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1064,7 +1064,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>OCC</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1223,7 +1223,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>OCC</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -1501,7 +1501,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1515,7 +1515,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>OCC</t>
         </is>
       </c>
     </row>
@@ -1632,7 +1632,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1669,7 +1669,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1683,7 +1683,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>OCC</t>
         </is>
       </c>
     </row>
@@ -3284,7 +3284,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -3299,7 +3299,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -3313,7 +3313,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>OCC</t>
         </is>
       </c>
     </row>
@@ -3442,7 +3442,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -3469,7 +3469,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -3483,7 +3483,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>OCC</t>
         </is>
       </c>
     </row>

--- a/reports/_OCC_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-11-28_20_.xlsx
+++ b/reports/_OCC_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-11-28_20_.xlsx
@@ -19,9 +19,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="100" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="101" formatCode="yyyy/mm/dd hh:mm:ss"/>
+    <numFmt numFmtId="102" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -110,13 +111,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="0" numFmtId="14" fontId="0" fillId="0" xfId="0" applyNumberFormat="1"/>
     <xf borderId="2" numFmtId="0" fontId="1" fillId="2" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" wrapText="false"/>
     </xf>
+    <xf borderId="0" numFmtId="102" fontId="0" fillId="0" applyNumberFormat="true" applyFill="false" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf borderId="3" numFmtId="0" fontId="2" fillId="3" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
   </cellXfs>
   <cellStyles count="1">
@@ -132,13 +134,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AH8"/>
+  <dimension ref="A1:AH7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -148,30 +150,30 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="22.213483146067418"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="19.213483146067418"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="19.213483146067418"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.713483146067418"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="32" max="32" bestFit="false" customWidth="false"/>
-    <col min="33" max="33" bestFit="false" customWidth="false"/>
-    <col min="34" max="34" bestFit="false" customWidth="false"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="8.713483146067416"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="7.213483146067416"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="11.713483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -181,229 +183,237 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>OCC</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>OCC</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Import Container In Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:1</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Issue Date</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>In Date</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Container Condition</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Unstuffing Date</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Out Date</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Seal Number</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Amen Seal No</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Vessel</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Rotation Number</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>Line Number</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>Be Number</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
+        <is>
+          <t>Bl Number</t>
+        </is>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t>From Location</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Depot Location</t>
+        </is>
+      </c>
+      <c r="AB6" s="5" t="inlineStr">
+        <is>
+          <t>Importer</t>
+        </is>
+      </c>
+      <c r="AC6" s="5" t="inlineStr">
+        <is>
+          <t>Cnf</t>
+        </is>
+      </c>
+      <c r="AD6" s="5" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="AE6" s="5" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="AF6" s="5" t="inlineStr">
+        <is>
+          <t>In Transport</t>
+        </is>
+      </c>
+      <c r="AG6" s="5" t="inlineStr">
+        <is>
+          <t>In Trailer</t>
+        </is>
+      </c>
+      <c r="AH6" s="5" t="inlineStr">
+        <is>
+          <t>In Remarks</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Unstuffing Date</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>Out Date</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Vessel</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>CNF</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>In Transport</t>
-        </is>
-      </c>
-      <c r="AD7" s="4" t="inlineStr">
-        <is>
-          <t>In Trailer</t>
-        </is>
-      </c>
-      <c r="AE7" s="4" t="inlineStr">
-        <is>
-          <t>In Remarks</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0"/>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0"/>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
-      <c r="AB8" s="0"/>
-      <c r="AC8" s="0"/>
-      <c r="AD8" s="0"/>
-      <c r="AE8" s="0"/>
-      <c r="AF8" s="0"/>
-      <c r="AG8" s="0"/>
-      <c r="AH8" s="0"/>
+      <c r="A7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
+      <c r="AE7" s="0"/>
+      <c r="AF7" s="0"/>
+      <c r="AG7" s="0"/>
+      <c r="AH7" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -426,15 +436,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -451,115 +461,108 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>OCC</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
+          <t>Import Issue Balance Report Summary</t>
+        </is>
+      </c>
+    </row>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
           <t>OCC</t>
         </is>
       </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Import Issue Balance Report Summary</t>
-        </is>
-      </c>
-    </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>CTL</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>OCC</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
+      <c r="C6" s="0" t="inlineStr">
         <is>
           <t>40-HC</t>
         </is>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D6" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
         <v>13</v>
       </c>
     </row>
@@ -584,15 +587,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -609,103 +612,96 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>OCC</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>OCC</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Import Container In Report</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -730,13 +726,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AH8"/>
+  <dimension ref="A1:AH7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="46.456179775280894" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -745,31 +741,31 @@
     <col min="7" max="7" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="24" max="24" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="22.213483146067418"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="19.213483146067418"/>
     <col min="28" max="28" bestFit="true" customWidth="true" width="19.213483146067418"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="33" max="33" bestFit="false" customWidth="false"/>
-    <col min="34" max="34" bestFit="false" customWidth="false"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="11.713483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -779,234 +775,237 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>OCC</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>OCC</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Total Import Container Unstuffing Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:1</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Height</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Rotation Number</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Be Number</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Bl Number</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Line Number</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Importer</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Cnf</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Seal Number</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Amen Seal No</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>From Location</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Depot Location</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Issue Date</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>In Date</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>Unstuffing Date</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
+        <is>
+          <t>Container Condition</t>
+        </is>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="AB6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="AC6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="AD6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="AE6" s="5" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+      <c r="AF6" s="5" t="inlineStr">
+        <is>
+          <t>In Transport</t>
+        </is>
+      </c>
+      <c r="AG6" s="5" t="inlineStr">
+        <is>
+          <t>Trailer Number</t>
+        </is>
+      </c>
+      <c r="AH6" s="5" t="inlineStr">
+        <is>
+          <t>In Remarks</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Height</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Import Vessel</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>CNF</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>Unstuffing Date</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>In Transport</t>
-        </is>
-      </c>
-      <c r="AD7" s="4" t="inlineStr">
-        <is>
-          <t>In Trailer</t>
-        </is>
-      </c>
-      <c r="AE7" s="4" t="inlineStr">
-        <is>
-          <t>Trailer #</t>
-        </is>
-      </c>
-      <c r="AF7" s="4" t="inlineStr">
-        <is>
-          <t>In Remarks</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0"/>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0"/>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
-      <c r="AB8" s="0"/>
-      <c r="AC8" s="0"/>
-      <c r="AD8" s="0"/>
-      <c r="AE8" s="0"/>
-      <c r="AF8" s="0"/>
-      <c r="AG8" s="0"/>
-      <c r="AH8" s="0"/>
+      <c r="A7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
+      <c r="AE7" s="0"/>
+      <c r="AF7" s="0"/>
+      <c r="AG7" s="0"/>
+      <c r="AH7" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -1029,15 +1028,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.2561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1054,103 +1053,96 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>OCC</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>OCC</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Total Import Container Unstuffing Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1175,13 +1167,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AK8"/>
+  <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="44.6561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1189,35 +1181,35 @@
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="19.213483146067418"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.713483146067418"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="17.713483146067418"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="7.213483146067416"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="20" max="20" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="22.213483146067418"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="28" max="28" bestFit="true" customWidth="true" width="19.213483146067418"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="33" max="33" bestFit="false" customWidth="false"/>
-    <col min="34" max="34" bestFit="false" customWidth="false"/>
-    <col min="35" max="35" bestFit="false" customWidth="false"/>
-    <col min="36" max="36" bestFit="false" customWidth="false"/>
-    <col min="37" max="37" bestFit="false" customWidth="false"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="13.213483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -1227,237 +1219,255 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>OCC</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>OCC</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Total Import Container FCL Out Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:1</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Rotation Number</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Importer</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Cnf</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Current Depot</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Seal Number</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Amen Seal No</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Be Number</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Bl Number</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Line Number</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>From Location</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Depot Location</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Issue Date</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>In Date</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>Out Date</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
+        <is>
+          <t>Out Location</t>
+        </is>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t>Container Condition</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="AB6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="AC6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="AD6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="AE6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="AF6" s="5" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+      <c r="AG6" s="5" t="inlineStr">
+        <is>
+          <t>Total Lot</t>
+        </is>
+      </c>
+      <c r="AH6" s="5" t="inlineStr">
+        <is>
+          <t>Total Weight</t>
+        </is>
+      </c>
+      <c r="AI6" s="5" t="inlineStr">
+        <is>
+          <t>Out Transport</t>
+        </is>
+      </c>
+      <c r="AJ6" s="5" t="inlineStr">
+        <is>
+          <t>Trailer Number</t>
+        </is>
+      </c>
+      <c r="AK6" s="5" t="inlineStr">
+        <is>
+          <t>Out Remarks</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>Import Vessel</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>CNFCommodity</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>Current Depo</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>Out Date</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>Out Location</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>Total Lot</t>
-        </is>
-      </c>
-      <c r="AD7" s="4" t="inlineStr">
-        <is>
-          <t>Total Weight</t>
-        </is>
-      </c>
-      <c r="AE7" s="4" t="inlineStr">
-        <is>
-          <t>Out Transport</t>
-        </is>
-      </c>
-      <c r="AF7" s="4" t="inlineStr">
-        <is>
-          <t>Out Remarks</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0"/>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0"/>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
-      <c r="AB8" s="0"/>
-      <c r="AC8" s="0"/>
-      <c r="AD8" s="0"/>
-      <c r="AE8" s="0"/>
-      <c r="AF8" s="0"/>
-      <c r="AG8" s="0"/>
-      <c r="AH8" s="0"/>
-      <c r="AI8" s="0"/>
-      <c r="AJ8" s="0"/>
-      <c r="AK8" s="0"/>
+      <c r="A7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
+      <c r="AE7" s="0"/>
+      <c r="AF7" s="0"/>
+      <c r="AG7" s="0"/>
+      <c r="AH7" s="0"/>
+      <c r="AI7" s="0"/>
+      <c r="AJ7" s="0"/>
+      <c r="AK7" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -1480,15 +1490,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="46.456179775280894" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1505,103 +1515,96 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>OCC</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>OCC</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Total Import Container FCL Out Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1626,13 +1629,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF20"/>
+  <dimension ref="A1:AF19"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1640,30 +1643,30 @@
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="19.213483146067418"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="33.889887640449444"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="22.213483146067418"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="19.213483146067418"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="19.213483146067418"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="17.713483146067418"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="39.389887640449444"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="19.213483146067418"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="21.789887640449443"/>
     <col min="24" max="24" bestFit="true" customWidth="true" width="21.789887640449443"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="28" max="28" bestFit="true" customWidth="true" width="17.38988764044944"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="30" max="30" bestFit="false" customWidth="false"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="3.089887640449438"/>
-    <col min="32" max="32" bestFit="false" customWidth="false"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="11.713483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -1673,189 +1676,305 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>OCC</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
+          <t>Import Laden Container Stock Report</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>Total number of conatiners:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Rotation Number</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Importer</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Container Condition</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Cnf</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Seal Number</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Amen Seal No</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>Issue Date</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>In Date</t>
+        </is>
+      </c>
+      <c r="Y6" s="4" t="inlineStr">
+        <is>
+          <t>From Location</t>
+        </is>
+      </c>
+      <c r="Z6" s="4" t="inlineStr">
+        <is>
+          <t>Depot Location</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Be Number</t>
+        </is>
+      </c>
+      <c r="AB6" s="5" t="inlineStr">
+        <is>
+          <t>Bl Number</t>
+        </is>
+      </c>
+      <c r="AC6" s="5" t="inlineStr">
+        <is>
+          <t>Line Number</t>
+        </is>
+      </c>
+      <c r="AD6" s="5" t="inlineStr">
+        <is>
+          <t>Trailer Number</t>
+        </is>
+      </c>
+      <c r="AE6" s="5" t="inlineStr">
+        <is>
+          <t>In Transport</t>
+        </is>
+      </c>
+      <c r="AF6" s="5" t="inlineStr">
+        <is>
+          <t>In Remarks</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>8845</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>OOLU9474116</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>SAPL-W</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
           <t>OCC</t>
         </is>
       </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Import Laden Container Stock Report</t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>Total number of conatiners:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="6"/>
-    <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>Import Vessel</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>CNF</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>TZINI</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>918/2018</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>ACI GODREJ AGROVET PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="K7" s="0" t="inlineStr">
+        <is>
+          <t>SOUND</t>
+        </is>
+      </c>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0" t="inlineStr">
+        <is>
+          <t>DDGS (DISTILLIERS DRIED GRAINS WITH SOLUBLES)</t>
+        </is>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>661</v>
+      </c>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0" t="inlineStr">
+        <is>
+          <t>2018-5192</t>
+        </is>
+      </c>
+      <c r="W7" s="0" t="d">
+        <v>2018-03-26T00:00:00</v>
+      </c>
+      <c r="X7" s="0" t="d">
+        <v>2018-03-26T00:00:00</v>
       </c>
       <c r="Y7" s="4" t="inlineStr">
         <is>
-          <t>BL #</t>
+          <t>CPA</t>
         </is>
       </c>
       <c r="Z7" s="4" t="inlineStr">
         <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>Trailer #</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>In Transport</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>In Remarks</t>
-        </is>
-      </c>
+          <t>SAPL</t>
+        </is>
+      </c>
+      <c r="AA7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="0" t="inlineStr">
+        <is>
+          <t>OOLU4044785680</t>
+        </is>
+      </c>
+      <c r="AC7" s="0" t="n">
+        <v>169</v>
+      </c>
+      <c r="AD7" s="0"/>
+      <c r="AE7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>8845</v>
+        <v>8846</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>OOLU9474116</t>
+          <t>OOLU9243061</t>
         </is>
       </c>
       <c r="C8" s="0" t="n">
@@ -1914,12 +2033,12 @@
         </is>
       </c>
       <c r="T8" s="0" t="n">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="U8" s="0"/>
       <c r="V8" s="0" t="inlineStr">
         <is>
-          <t>2018-5192</t>
+          <t>2018-5193</t>
         </is>
       </c>
       <c r="W8" s="0" t="d">
@@ -1928,12 +2047,12 @@
       <c r="X8" s="0" t="d">
         <v>2018-03-26T00:00:00</v>
       </c>
-      <c r="Y8" s="0" t="inlineStr">
+      <c r="Y8" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z8" s="0" t="inlineStr">
+      <c r="Z8" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -1959,11 +2078,11 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>8846</v>
+        <v>8847</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>OOLU9243061</t>
+          <t>OOLU8695370</t>
         </is>
       </c>
       <c r="C9" s="0" t="n">
@@ -2022,12 +2141,12 @@
         </is>
       </c>
       <c r="T9" s="0" t="n">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="U9" s="0"/>
       <c r="V9" s="0" t="inlineStr">
         <is>
-          <t>2018-5193</t>
+          <t>2018-5194</t>
         </is>
       </c>
       <c r="W9" s="0" t="d">
@@ -2036,12 +2155,12 @@
       <c r="X9" s="0" t="d">
         <v>2018-03-26T00:00:00</v>
       </c>
-      <c r="Y9" s="0" t="inlineStr">
+      <c r="Y9" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z9" s="0" t="inlineStr">
+      <c r="Z9" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2067,11 +2186,11 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>8847</v>
+        <v>8848</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>OOLU8695370</t>
+          <t>OOCU6969711</t>
         </is>
       </c>
       <c r="C10" s="0" t="n">
@@ -2130,12 +2249,12 @@
         </is>
       </c>
       <c r="T10" s="0" t="n">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="U10" s="0"/>
       <c r="V10" s="0" t="inlineStr">
         <is>
-          <t>2018-5194</t>
+          <t>2018-5196</t>
         </is>
       </c>
       <c r="W10" s="0" t="d">
@@ -2144,12 +2263,12 @@
       <c r="X10" s="0" t="d">
         <v>2018-03-26T00:00:00</v>
       </c>
-      <c r="Y10" s="0" t="inlineStr">
+      <c r="Y10" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z10" s="0" t="inlineStr">
+      <c r="Z10" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2175,11 +2294,11 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>8848</v>
+        <v>8849</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>OOCU6969711</t>
+          <t>OOCU6507950</t>
         </is>
       </c>
       <c r="C11" s="0" t="n">
@@ -2238,12 +2357,12 @@
         </is>
       </c>
       <c r="T11" s="0" t="n">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="U11" s="0"/>
       <c r="V11" s="0" t="inlineStr">
         <is>
-          <t>2018-5196</t>
+          <t>2018-5195</t>
         </is>
       </c>
       <c r="W11" s="0" t="d">
@@ -2252,12 +2371,12 @@
       <c r="X11" s="0" t="d">
         <v>2018-03-26T00:00:00</v>
       </c>
-      <c r="Y11" s="0" t="inlineStr">
+      <c r="Y11" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z11" s="0" t="inlineStr">
+      <c r="Z11" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2283,11 +2402,11 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>8849</v>
+        <v>8850</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>OOCU6507950</t>
+          <t>OOCU7053148</t>
         </is>
       </c>
       <c r="C12" s="0" t="n">
@@ -2346,12 +2465,12 @@
         </is>
       </c>
       <c r="T12" s="0" t="n">
-        <v>659</v>
+        <v>583</v>
       </c>
       <c r="U12" s="0"/>
       <c r="V12" s="0" t="inlineStr">
         <is>
-          <t>2018-5195</t>
+          <t>2018-5197</t>
         </is>
       </c>
       <c r="W12" s="0" t="d">
@@ -2360,12 +2479,12 @@
       <c r="X12" s="0" t="d">
         <v>2018-03-26T00:00:00</v>
       </c>
-      <c r="Y12" s="0" t="inlineStr">
+      <c r="Y12" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z12" s="0" t="inlineStr">
+      <c r="Z12" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2391,11 +2510,11 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>8850</v>
+        <v>8851</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>OOCU7053148</t>
+          <t>OOCU6870610</t>
         </is>
       </c>
       <c r="C13" s="0" t="n">
@@ -2454,26 +2573,26 @@
         </is>
       </c>
       <c r="T13" s="0" t="n">
-        <v>583</v>
+        <v>664</v>
       </c>
       <c r="U13" s="0"/>
       <c r="V13" s="0" t="inlineStr">
         <is>
-          <t>2018-5197</t>
+          <t>2018-5303</t>
         </is>
       </c>
       <c r="W13" s="0" t="d">
         <v>2018-03-26T00:00:00</v>
       </c>
       <c r="X13" s="0" t="d">
-        <v>2018-03-26T00:00:00</v>
-      </c>
-      <c r="Y13" s="0" t="inlineStr">
+        <v>2018-03-28T00:00:00</v>
+      </c>
+      <c r="Y13" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z13" s="0" t="inlineStr">
+      <c r="Z13" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2499,11 +2618,11 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>8851</v>
+        <v>8852</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>OOCU6870610</t>
+          <t>OOLU8214109</t>
         </is>
       </c>
       <c r="C14" s="0" t="n">
@@ -2562,12 +2681,12 @@
         </is>
       </c>
       <c r="T14" s="0" t="n">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="U14" s="0"/>
       <c r="V14" s="0" t="inlineStr">
         <is>
-          <t>2018-5303</t>
+          <t>2018-5306</t>
         </is>
       </c>
       <c r="W14" s="0" t="d">
@@ -2576,12 +2695,12 @@
       <c r="X14" s="0" t="d">
         <v>2018-03-28T00:00:00</v>
       </c>
-      <c r="Y14" s="0" t="inlineStr">
+      <c r="Y14" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z14" s="0" t="inlineStr">
+      <c r="Z14" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2607,11 +2726,11 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>8852</v>
+        <v>8853</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>OOLU8214109</t>
+          <t>OOCU6534391</t>
         </is>
       </c>
       <c r="C15" s="0" t="n">
@@ -2670,12 +2789,12 @@
         </is>
       </c>
       <c r="T15" s="0" t="n">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="U15" s="0"/>
       <c r="V15" s="0" t="inlineStr">
         <is>
-          <t>2018-5306</t>
+          <t>2018-5302</t>
         </is>
       </c>
       <c r="W15" s="0" t="d">
@@ -2684,12 +2803,12 @@
       <c r="X15" s="0" t="d">
         <v>2018-03-28T00:00:00</v>
       </c>
-      <c r="Y15" s="0" t="inlineStr">
+      <c r="Y15" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z15" s="0" t="inlineStr">
+      <c r="Z15" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2715,11 +2834,11 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>8853</v>
+        <v>8854</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>OOCU6534391</t>
+          <t>OOCU6940390</t>
         </is>
       </c>
       <c r="C16" s="0" t="n">
@@ -2778,12 +2897,12 @@
         </is>
       </c>
       <c r="T16" s="0" t="n">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="U16" s="0"/>
       <c r="V16" s="0" t="inlineStr">
         <is>
-          <t>2018-5302</t>
+          <t>2018-5304</t>
         </is>
       </c>
       <c r="W16" s="0" t="d">
@@ -2792,12 +2911,12 @@
       <c r="X16" s="0" t="d">
         <v>2018-03-28T00:00:00</v>
       </c>
-      <c r="Y16" s="0" t="inlineStr">
+      <c r="Y16" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z16" s="0" t="inlineStr">
+      <c r="Z16" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2823,11 +2942,11 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>8854</v>
+        <v>8855</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>OOCU6940390</t>
+          <t>OOLU6853564</t>
         </is>
       </c>
       <c r="C17" s="0" t="n">
@@ -2886,12 +3005,12 @@
         </is>
       </c>
       <c r="T17" s="0" t="n">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="U17" s="0"/>
       <c r="V17" s="0" t="inlineStr">
         <is>
-          <t>2018-5304</t>
+          <t>2018-5305</t>
         </is>
       </c>
       <c r="W17" s="0" t="d">
@@ -2900,12 +3019,12 @@
       <c r="X17" s="0" t="d">
         <v>2018-03-28T00:00:00</v>
       </c>
-      <c r="Y17" s="0" t="inlineStr">
+      <c r="Y17" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z17" s="0" t="inlineStr">
+      <c r="Z17" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2931,11 +3050,11 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>8855</v>
+        <v>9736</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>OOLU6853564</t>
+          <t>OOLU8262806</t>
         </is>
       </c>
       <c r="C18" s="0" t="n">
@@ -2963,17 +3082,17 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>TZINI</t>
+          <t>MOLLY SCHULTE</t>
         </is>
       </c>
       <c r="I18" s="0" t="inlineStr">
         <is>
-          <t>918/2018</t>
+          <t>2753/2018</t>
         </is>
       </c>
       <c r="J18" s="0" t="inlineStr">
         <is>
-          <t>ACI GODREJ AGROVET PRIVATE LIMITED</t>
+          <t>AKBAR COTTON MILLS LTD.</t>
         </is>
       </c>
       <c r="K18" s="0" t="inlineStr">
@@ -2990,30 +3109,32 @@
       <c r="R18" s="0"/>
       <c r="S18" s="0" t="inlineStr">
         <is>
-          <t>DDGS (DISTILLIERS DRIED GRAINS WITH SOLUBLES)</t>
-        </is>
-      </c>
-      <c r="T18" s="0" t="n">
-        <v>656</v>
+          <t>RAW COTTON</t>
+        </is>
+      </c>
+      <c r="T18" s="0" t="inlineStr">
+        <is>
+          <t>OOLFFP3899</t>
+        </is>
       </c>
       <c r="U18" s="0"/>
       <c r="V18" s="0" t="inlineStr">
         <is>
-          <t>2018-5305</t>
+          <t>2018-15654</t>
         </is>
       </c>
       <c r="W18" s="0" t="d">
-        <v>2018-03-26T00:00:00</v>
+        <v>2018-09-15T00:00:00</v>
       </c>
       <c r="X18" s="0" t="d">
-        <v>2018-03-28T00:00:00</v>
-      </c>
-      <c r="Y18" s="0" t="inlineStr">
+        <v>2018-09-17T00:00:00</v>
+      </c>
+      <c r="Y18" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z18" s="0" t="inlineStr">
+      <c r="Z18" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -3023,11 +3144,11 @@
       </c>
       <c r="AB18" s="0" t="inlineStr">
         <is>
-          <t>OOLU4044785680</t>
+          <t>OOLU2608615240</t>
         </is>
       </c>
       <c r="AC18" s="0" t="n">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="AD18" s="0"/>
       <c r="AE18" s="0" t="inlineStr">
@@ -3039,11 +3160,11 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>9736</v>
+        <v>9737</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>OOLU8262806</t>
+          <t>OOCU7266354</t>
         </is>
       </c>
       <c r="C19" s="0" t="n">
@@ -3103,13 +3224,13 @@
       </c>
       <c r="T19" s="0" t="inlineStr">
         <is>
-          <t>OOLFFP3899</t>
+          <t>OOLFFP3901</t>
         </is>
       </c>
       <c r="U19" s="0"/>
       <c r="V19" s="0" t="inlineStr">
         <is>
-          <t>2018-15654</t>
+          <t>2018-15655</t>
         </is>
       </c>
       <c r="W19" s="0" t="d">
@@ -3118,12 +3239,12 @@
       <c r="X19" s="0" t="d">
         <v>2018-09-17T00:00:00</v>
       </c>
-      <c r="Y19" s="0" t="inlineStr">
+      <c r="Y19" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z19" s="0" t="inlineStr">
+      <c r="Z19" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -3146,116 +3267,6 @@
         </is>
       </c>
       <c r="AF19" s="0"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="n">
-        <v>9737</v>
-      </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t>OOCU7266354</t>
-        </is>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D20" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="E20" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="F20" s="0" t="inlineStr">
-        <is>
-          <t>CTL</t>
-        </is>
-      </c>
-      <c r="G20" s="0" t="inlineStr">
-        <is>
-          <t>OCC</t>
-        </is>
-      </c>
-      <c r="H20" s="0" t="inlineStr">
-        <is>
-          <t>MOLLY SCHULTE</t>
-        </is>
-      </c>
-      <c r="I20" s="0" t="inlineStr">
-        <is>
-          <t>2753/2018</t>
-        </is>
-      </c>
-      <c r="J20" s="0" t="inlineStr">
-        <is>
-          <t>AKBAR COTTON MILLS LTD.</t>
-        </is>
-      </c>
-      <c r="K20" s="0" t="inlineStr">
-        <is>
-          <t>SOUND</t>
-        </is>
-      </c>
-      <c r="L20" s="0"/>
-      <c r="M20" s="0"/>
-      <c r="N20" s="0"/>
-      <c r="O20" s="0"/>
-      <c r="P20" s="0"/>
-      <c r="Q20" s="0"/>
-      <c r="R20" s="0"/>
-      <c r="S20" s="0" t="inlineStr">
-        <is>
-          <t>RAW COTTON</t>
-        </is>
-      </c>
-      <c r="T20" s="0" t="inlineStr">
-        <is>
-          <t>OOLFFP3901</t>
-        </is>
-      </c>
-      <c r="U20" s="0"/>
-      <c r="V20" s="0" t="inlineStr">
-        <is>
-          <t>2018-15655</t>
-        </is>
-      </c>
-      <c r="W20" s="0" t="d">
-        <v>2018-09-15T00:00:00</v>
-      </c>
-      <c r="X20" s="0" t="d">
-        <v>2018-09-17T00:00:00</v>
-      </c>
-      <c r="Y20" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="Z20" s="0" t="inlineStr">
-        <is>
-          <t>SAPL</t>
-        </is>
-      </c>
-      <c r="AA20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="0" t="inlineStr">
-        <is>
-          <t>OOLU2608615240</t>
-        </is>
-      </c>
-      <c r="AC20" s="0" t="n">
-        <v>136</v>
-      </c>
-      <c r="AD20" s="0"/>
-      <c r="AE20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF20" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -3278,15 +3289,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -3303,115 +3314,108 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>OCC</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
+          <t>Laden Stock Report Summary</t>
+        </is>
+      </c>
+    </row>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
           <t>OCC</t>
         </is>
       </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Laden Stock Report Summary</t>
-        </is>
-      </c>
-    </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>CTL</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>OCC</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
+      <c r="C6" s="0" t="inlineStr">
         <is>
           <t>40-HC</t>
         </is>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D6" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3436,13 +3440,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -3450,19 +3454,19 @@
     <col min="6" max="6" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.08988764044944"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="17.38988764044944"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="8.713483146067416"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="22.88988764044944"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="12.989887640449439"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="19.213483146067418"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="21.789887640449443"/>
   </cols>
   <sheetData>
@@ -3473,149 +3477,235 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>OCC</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
+          <t>Import Issue Balance Report</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>Total number of conatiners:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Height</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Vessel Name</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Rotation Number</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Line Number</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Bl Number</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Be Number</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Importer</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Cnf</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>From Location</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Depot Location</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Seal Number</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Amen Seal No</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Issue Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>OOCU6416573</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>SAPL-W</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
           <t>OCC</t>
         </is>
       </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Import Issue Balance Report</t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>Total number of conatiners:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="6"/>
-    <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Height</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Vessel</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>CNF</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>MOLLY SCHULTE</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>2753/2018</t>
+        </is>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="L7" s="0" t="inlineStr">
+        <is>
+          <t>OOLU2608615240</t>
+        </is>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="0" t="inlineStr">
+        <is>
+          <t>AKBAR COTTON MILLS LTD.</t>
+        </is>
+      </c>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0" t="inlineStr">
+        <is>
+          <t>RAW COTTON</t>
+        </is>
+      </c>
+      <c r="R7" s="0" t="inlineStr">
+        <is>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="S7" s="0" t="inlineStr">
+        <is>
+          <t>SAPL</t>
+        </is>
+      </c>
+      <c r="T7" s="0" t="inlineStr">
+        <is>
+          <t>OOLFFP3923</t>
+        </is>
+      </c>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0" t="d">
+        <v>2018-09-15T00:00:00</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>11032</v>
+        <v>11033</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>OOCU6416573</t>
+          <t>OOCU7293030</t>
         </is>
       </c>
       <c r="C8" s="0" t="n">
@@ -3689,7 +3779,7 @@
       </c>
       <c r="T8" s="0" t="inlineStr">
         <is>
-          <t>OOLFFP3923</t>
+          <t>OOLFFP3933</t>
         </is>
       </c>
       <c r="U8" s="0"/>
@@ -3699,11 +3789,11 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>11033</v>
+        <v>11034</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>OOCU7293030</t>
+          <t>OOCU7430180</t>
         </is>
       </c>
       <c r="C9" s="0" t="n">
@@ -3777,7 +3867,7 @@
       </c>
       <c r="T9" s="0" t="inlineStr">
         <is>
-          <t>OOLFFP3933</t>
+          <t>OOLFFP3907</t>
         </is>
       </c>
       <c r="U9" s="0"/>
@@ -3787,11 +3877,11 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>11034</v>
+        <v>11035</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>OOCU7430180</t>
+          <t>OOLU6792772</t>
         </is>
       </c>
       <c r="C10" s="0" t="n">
@@ -3847,7 +3937,11 @@
         </is>
       </c>
       <c r="O10" s="0"/>
-      <c r="P10" s="0"/>
+      <c r="P10" s="0" t="inlineStr">
+        <is>
+          <t>2018-15656</t>
+        </is>
+      </c>
       <c r="Q10" s="0" t="inlineStr">
         <is>
           <t>RAW COTTON</t>
@@ -3865,7 +3959,7 @@
       </c>
       <c r="T10" s="0" t="inlineStr">
         <is>
-          <t>OOLFFP3907</t>
+          <t>OOLFFP6556</t>
         </is>
       </c>
       <c r="U10" s="0"/>
@@ -3875,11 +3969,11 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>11035</v>
+        <v>11036</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>OOLU6792772</t>
+          <t>OOLU6798934</t>
         </is>
       </c>
       <c r="C11" s="0" t="n">
@@ -3935,11 +4029,7 @@
         </is>
       </c>
       <c r="O11" s="0"/>
-      <c r="P11" s="0" t="inlineStr">
-        <is>
-          <t>2018-15656</t>
-        </is>
-      </c>
+      <c r="P11" s="0"/>
       <c r="Q11" s="0" t="inlineStr">
         <is>
           <t>RAW COTTON</t>
@@ -3957,7 +4047,7 @@
       </c>
       <c r="T11" s="0" t="inlineStr">
         <is>
-          <t>OOLFFP6556</t>
+          <t>OOLFFP6588</t>
         </is>
       </c>
       <c r="U11" s="0"/>
@@ -3967,11 +4057,11 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>11036</v>
+        <v>11037</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>OOLU6798934</t>
+          <t>OOLU8769257</t>
         </is>
       </c>
       <c r="C12" s="0" t="n">
@@ -4045,7 +4135,7 @@
       </c>
       <c r="T12" s="0" t="inlineStr">
         <is>
-          <t>OOLFFP6588</t>
+          <t>OOLFFP6521</t>
         </is>
       </c>
       <c r="U12" s="0"/>
@@ -4055,11 +4145,11 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>11037</v>
+        <v>11038</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>OOLU8769257</t>
+          <t>OOLU8801765</t>
         </is>
       </c>
       <c r="C13" s="0" t="n">
@@ -4133,7 +4223,7 @@
       </c>
       <c r="T13" s="0" t="inlineStr">
         <is>
-          <t>OOLFFP6521</t>
+          <t>OOLFFP6613</t>
         </is>
       </c>
       <c r="U13" s="0"/>
@@ -4143,11 +4233,11 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>11038</v>
+        <v>11039</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>OOLU8801765</t>
+          <t>OOLU8822460</t>
         </is>
       </c>
       <c r="C14" s="0" t="n">
@@ -4221,7 +4311,7 @@
       </c>
       <c r="T14" s="0" t="inlineStr">
         <is>
-          <t>OOLFFP6613</t>
+          <t>OOLFFP3970</t>
         </is>
       </c>
       <c r="U14" s="0"/>
@@ -4231,11 +4321,11 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>11039</v>
+        <v>11040</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>OOLU8822460</t>
+          <t>OOLU8867206</t>
         </is>
       </c>
       <c r="C15" s="0" t="n">
@@ -4309,7 +4399,7 @@
       </c>
       <c r="T15" s="0" t="inlineStr">
         <is>
-          <t>OOLFFP3970</t>
+          <t>OOLFFP6555</t>
         </is>
       </c>
       <c r="U15" s="0"/>
@@ -4319,11 +4409,11 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>11040</v>
+        <v>11041</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>OOLU8867206</t>
+          <t>OOLU8867546</t>
         </is>
       </c>
       <c r="C16" s="0" t="n">
@@ -4397,7 +4487,7 @@
       </c>
       <c r="T16" s="0" t="inlineStr">
         <is>
-          <t>OOLFFP6555</t>
+          <t>OOLFFP3996</t>
         </is>
       </c>
       <c r="U16" s="0"/>
@@ -4407,11 +4497,11 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>11041</v>
+        <v>11042</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>OOLU8867546</t>
+          <t>OOLU8925133</t>
         </is>
       </c>
       <c r="C17" s="0" t="n">
@@ -4485,7 +4575,7 @@
       </c>
       <c r="T17" s="0" t="inlineStr">
         <is>
-          <t>OOLFFP3996</t>
+          <t>OOLFFP3955</t>
         </is>
       </c>
       <c r="U17" s="0"/>
@@ -4495,11 +4585,11 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>11042</v>
+        <v>11043</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>OOLU8925133</t>
+          <t>OOLU9431238</t>
         </is>
       </c>
       <c r="C18" s="0" t="n">
@@ -4573,7 +4663,7 @@
       </c>
       <c r="T18" s="0" t="inlineStr">
         <is>
-          <t>OOLFFP3955</t>
+          <t>OOLFFP3980</t>
         </is>
       </c>
       <c r="U18" s="0"/>
@@ -4583,11 +4673,11 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>11043</v>
+        <v>11044</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>OOLU9431238</t>
+          <t>OOLU9711394</t>
         </is>
       </c>
       <c r="C19" s="0" t="n">
@@ -4661,99 +4751,11 @@
       </c>
       <c r="T19" s="0" t="inlineStr">
         <is>
-          <t>OOLFFP3980</t>
+          <t>OOLFFP6561</t>
         </is>
       </c>
       <c r="U19" s="0"/>
       <c r="V19" s="0" t="d">
-        <v>2018-09-15T00:00:00</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="n">
-        <v>11044</v>
-      </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t>OOLU9711394</t>
-        </is>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D20" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="F20" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="G20" s="0" t="inlineStr">
-        <is>
-          <t>CTL</t>
-        </is>
-      </c>
-      <c r="H20" s="0" t="inlineStr">
-        <is>
-          <t>OCC</t>
-        </is>
-      </c>
-      <c r="I20" s="0" t="inlineStr">
-        <is>
-          <t>MOLLY SCHULTE</t>
-        </is>
-      </c>
-      <c r="J20" s="0" t="inlineStr">
-        <is>
-          <t>2753/2018</t>
-        </is>
-      </c>
-      <c r="K20" s="0" t="n">
-        <v>136</v>
-      </c>
-      <c r="L20" s="0" t="inlineStr">
-        <is>
-          <t>OOLU2608615240</t>
-        </is>
-      </c>
-      <c r="M20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="0" t="inlineStr">
-        <is>
-          <t>AKBAR COTTON MILLS LTD.</t>
-        </is>
-      </c>
-      <c r="O20" s="0"/>
-      <c r="P20" s="0"/>
-      <c r="Q20" s="0" t="inlineStr">
-        <is>
-          <t>RAW COTTON</t>
-        </is>
-      </c>
-      <c r="R20" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="S20" s="0" t="inlineStr">
-        <is>
-          <t>SAPL</t>
-        </is>
-      </c>
-      <c r="T20" s="0" t="inlineStr">
-        <is>
-          <t>OOLFFP6561</t>
-        </is>
-      </c>
-      <c r="U20" s="0"/>
-      <c r="V20" s="0" t="d">
         <v>2018-09-15T00:00:00</v>
       </c>
     </row>
